--- a/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,127 +22,196 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>000978</t>
+  </si>
+  <si>
+    <t>006682</t>
+  </si>
+  <si>
+    <t>002076</t>
+  </si>
+  <si>
+    <t>005457</t>
+  </si>
+  <si>
+    <t>005994</t>
+  </si>
+  <si>
+    <t>001351</t>
+  </si>
+  <si>
+    <t>001839</t>
+  </si>
+  <si>
+    <t>007089</t>
+  </si>
+  <si>
+    <t>007386</t>
+  </si>
+  <si>
     <t>005166</t>
   </si>
   <si>
-    <t>000978</t>
-  </si>
-  <si>
-    <t>001351</t>
-  </si>
-  <si>
-    <t>002076</t>
-  </si>
-  <si>
-    <t>005457</t>
-  </si>
-  <si>
-    <t>005994</t>
-  </si>
-  <si>
-    <t>006682</t>
-  </si>
-  <si>
-    <t>007089</t>
-  </si>
-  <si>
-    <t>007386</t>
-  </si>
-  <si>
-    <t>001839</t>
-  </si>
-  <si>
     <t>010355</t>
   </si>
   <si>
+    <t>景顺长城量化精选股票</t>
+  </si>
+  <si>
+    <t>景顺长城中证500指数增强</t>
+  </si>
+  <si>
+    <t>浙商中证500指数增强A</t>
+  </si>
+  <si>
+    <t>景顺长城量化小盘股票</t>
+  </si>
+  <si>
+    <t>国投瑞银中证500指数量化增强A</t>
+  </si>
+  <si>
+    <t>诺安中证500指数增强A</t>
+  </si>
+  <si>
+    <t>九泰久兴灵活配置混合</t>
+  </si>
+  <si>
+    <t>国投瑞银中证500指数量化增强C</t>
+  </si>
+  <si>
+    <t>浙商中证500指数增强C</t>
+  </si>
+  <si>
     <t>嘉实润和量化6个月定期开放混合</t>
   </si>
   <si>
-    <t>景顺长城量化精选股票</t>
-  </si>
-  <si>
-    <t>诺安中证500指数增强A</t>
-  </si>
-  <si>
-    <t>浙商中证500指数增强A</t>
-  </si>
-  <si>
-    <t>景顺长城量化小盘股票</t>
-  </si>
-  <si>
-    <t>国投瑞银中证500指数量化增强A</t>
-  </si>
-  <si>
-    <t>景顺长城中证500指数增强</t>
-  </si>
-  <si>
-    <t>国投瑞银中证500指数量化增强C</t>
-  </si>
-  <si>
-    <t>浙商中证500指数增强C</t>
-  </si>
-  <si>
-    <t>九泰久兴灵活配置混合</t>
-  </si>
-  <si>
     <t>诺安中证500指数增强C</t>
   </si>
   <si>
+    <t>5.79</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>85.04</t>
+  </si>
+  <si>
+    <t>93.84</t>
+  </si>
+  <si>
+    <t>88.81</t>
+  </si>
+  <si>
+    <t>93.66</t>
+  </si>
+  <si>
+    <t>88.89</t>
+  </si>
+  <si>
+    <t>94.34</t>
+  </si>
+  <si>
+    <t>91.42</t>
+  </si>
+  <si>
     <t>25.81</t>
   </si>
   <si>
-    <t>85.04</t>
-  </si>
-  <si>
-    <t>94.34</t>
-  </si>
-  <si>
-    <t>88.81</t>
-  </si>
-  <si>
-    <t>93.66</t>
-  </si>
-  <si>
-    <t>88.89</t>
-  </si>
-  <si>
-    <t>93.84</t>
-  </si>
-  <si>
-    <t>91.42</t>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>0.67</t>
   </si>
   <si>
     <t>0.43</t>
   </si>
   <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>1.81</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>0.67</t>
+    <t>0.0932</t>
+  </si>
+  <si>
+    <t>0.0537</t>
+  </si>
+  <si>
+    <t>0.0292</t>
+  </si>
+  <si>
+    <t>0.0196</t>
+  </si>
+  <si>
+    <t>0.0186</t>
+  </si>
+  <si>
+    <t>0.0168</t>
+  </si>
+  <si>
+    <t>0.0156</t>
+  </si>
+  <si>
+    <t>0.0048</t>
+  </si>
+  <si>
+    <t>0.0040</t>
+  </si>
+  <si>
+    <t>0.0020</t>
   </si>
 </sst>
 </file>
@@ -500,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,224 +591,296 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1123,4 +1124,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1132,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,17 +1144,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1163,14 +1184,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1179,13 +1222,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,473 +453,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0932</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1127,218 +871,474 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0932</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -532,6 +549,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -871,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000690-宝新能源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>4.96</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -549,6 +566,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5552</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012287</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013377</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -984,7 +2273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1116,7 +2405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1324,7 +2613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
